--- a/SDL-Game-Framework-main/SDL Game Framework/SDL Game Framework/Asset/Data/GGAM.xlsx
+++ b/SDL-Game-Framework-main/SDL Game Framework/SDL Game Framework/Asset/Data/GGAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\느시\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CafeAlle\Desktop\게임 효과구현2\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1913,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6445,6 +6445,11 @@
       </c>
       <c r="R118" s="3"/>
     </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
